--- a/tdcrpy/validation/Validation_Fast_Quenching.xlsx
+++ b/tdcrpy/validation/Validation_Fast_Quenching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7625D37-F642-4CB7-8ABA-E154576FD77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616E9EB-3BBF-485E-9BD6-766C08E2754D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling_H-3" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="747">
   <si>
     <t>Thu Aug 24 08:18:55 2023    profile_results.txt</t>
   </si>
@@ -1554,6 +1554,732 @@
   </si>
   <si>
     <t>This error is particularly important for alpha particule ranging from 1e-3 to 2e-3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:1023(_read2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:23(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:196(__init__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\lib\function_base.py:1164(diff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\_fitpack_impl.py:524(splev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:211(validate_input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {built-in method numpy.arange}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:747(read)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\shape_base.py:23(atleast_1d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {built-in method scipy.interpolate._fitpack._spl_}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 {method 'read' of '_io.BufferedReader' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:326(__call__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2367(all)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:258(_reset_class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack.py:295(splev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:282(_set_class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {method 'any' of 'numpy.generic' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(diff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(all)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(atleast_1d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:358(issubdtype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:284(issubclass_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numeric.py:1858(isscalar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2268(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(ndim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {method 'ravel' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\lib\function_base.py:1160(_diff_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\shape_base.py:19(_atleast_1d_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\_methods.py:54(_any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {method 'astype' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3127(ndim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2362(_all_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {built-in method _operator.index}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\multiarray.py:664(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2263(_any_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3123(_ndim_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:18(_linspace_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2123(sum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(sum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2118(_sum_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:282(_set_class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.001    0.000    0.001    0.000 {method 'rand' of 'numpy.random.mtrand.RandomState' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.001    0.000    0.004    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:69(_wrapreduction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      624    0.000    0.000    0.000    0.000 {built-in method numpy.asanyarray}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.004    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2268(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      936    0.000    0.000    0.000    0.000 {built-in method builtins.issubclass}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.005    0.000 &lt;__array_function__ internals&gt;:2(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.004    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:51(_wrapfunc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      328    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:875(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      985    0.000    0.000    0.000    0.000 {method 'replace' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      330    0.000    0.000    0.000    0.000 {method 'split' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:891(peek)</t>
+  </si>
+  <si>
+    <t>test TDCRPy() version 0.0.78 for 10 MC trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.001    0.001    0.003    0.003 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:606(readBetaShape)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\configparser.py:678(read)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      330    0.000    0.000    0.000    0.000 {built-in method builtins.isinstance}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       32    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\configparser.py:1017(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      109    0.000    0.000    0.000    0.000 {method 'match' of 're.Pattern' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      640    0.000    0.000    0.000    0.000 {method 'append' of 'list' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       11    0.000    0.000    0.000    0.000 {method 'search' of 're.Pattern' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       89    0.000    0.000    0.000    0.000 {method 'strip' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       48    0.000    0.000    0.000    0.000 {method 'startswith' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       14    0.000    0.000    0.000    0.000 {method 'group' of 're.Match' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       25    0.000    0.000    0.000    0.000 {method 'rstrip' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       16    0.000    0.000    0.000    0.000 {method 'join' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       11    0.000    0.000    0.000    0.000 {method 'add' of 'set' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       11    0.000    0.000    0.000    0.000 {method 'start' of 're.Match' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {function ZipExtFile.close at 0x000001EAEEDFF798}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       10    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\configparser.py:368(before_read)</t>
+  </si>
+  <si>
+    <t>Fri Aug 25 07:14:52 2023    profile_results.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         23674 function calls (23666 primitive calls) in 0.015 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.006    0.006    0.010    0.010 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:216(readPenNuc2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1319    0.001    0.000    0.001    0.000 {method 'split' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1309    0.001    0.000    0.002    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:875(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4731    0.001    0.000    0.001    0.000 {method 'replace' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.001    0.001    0.002    0.002 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1239(readEShape)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:533(stoppingpower)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:669(E_quench_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4620    0.000    0.000    0.000    0.000 {method 'strip' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1309    0.000    0.000    0.000    0.000 {method 'find' of 'bytes' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:724(run_interpolate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       22    0.000    0.000    0.000    0.000 {method 'decompress' of 'zlib.Decompress' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.002    0.001 {method 'readlines' of '_io._IOBase' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3520    0.000    0.000    0.000    0.000 {method 'append' of 'list' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82    0.000    0.000    0.000    0.000 {method 'reduce' of 'numpy.ufunc' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3913    0.000    0.000    0.000    0.000 {built-in method builtins.len}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.015    0.015 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCRPy.py:18(TDCRPy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       20    0.000    0.000    0.000    0.000 {built-in method numpy.asarray}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       71    0.000    0.000    0.000    0.000 {built-in method numpy.array}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       68    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:907(read)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       22    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:987(_read1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       70    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:69(_wrapreduction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       44    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:891(peek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       24    0.000    0.000    0.000    0.000 {built-in method zlib.crc32}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    96/93    0.000    0.000    0.001    0.000 {built-in method numpy.core._multiarray_umath.implement_array_function}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.002    0.002 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1365(relaxation_atom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       24    0.000    0.000    0.001    0.000 {function ZipExtFile.readline at 0x000001EAEEDFF318}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       10    0.000    0.000    0.000    0.000 {method 'tell' of '_io.BufferedReader' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 {method 'read' of '_io.BufferedReader' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.015    0.015 G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\test.py:23(main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        9    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\_methods.py:66(_count_reduce_items)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 {method 'cumsum' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       70    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:70(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        6    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\_methods.py:162(_mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:193(sampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.015    0.015 {built-in method builtins.exec}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:747(read)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      105    0.000    0.000    0.000    0.000 {built-in method builtins.isinstance}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       22    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:940(_update_crc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        6    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3322(mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 {method 'rand' of 'numpy.random.mtrand.RandomState' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:166(normalise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       18    0.000    0.000    0.000    0.000 {built-in method numpy.asanyarray}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:1023(_read2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 {built-in method builtins.sum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3169(size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       70    0.000    0.000    0.000    0.000 {method 'items' of 'dict' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:38(_wrapit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 {built-in method builtins.round}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:51(_wrapfunc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       26    0.000    0.000    0.000    0.000 {built-in method builtins.max}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 {method 'seek' of '_io.BufferedReader' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       18    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\configparser.py:872(optionxform)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:930(energie_dep_gamma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       22    0.000    0.000    0.000    0.000 {built-in method builtins.getattr}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(cumsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        6    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2458(cumsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       16    0.000    0.000    0.000    0.000 {built-in method builtins.hasattr}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {method 'split' of 're.Pattern' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       11    0.000    0.000    0.000    0.000 {built-in method numpy.core._multiarray_umath.normalize_axis_index}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:831(Em_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       20    0.000    0.000    0.000    0.000 {method 'lower' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       17    0.000    0.000    0.000    0.000 {method 'join' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\re.py:207(split)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {function ZipExtFile.close at 0x000001EAEEDFF798}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1221(transf_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:1516(&lt;lambda&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:799(Em_a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\re.py:273(_compile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        6    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3317(_mean_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4    0.000    0.000    0.000    0.000 {built-in method builtins.min}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.015    0.015 &lt;string&gt;:1(&lt;module&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2454(_cumsum_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {method 'insert' of 'list' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3165(_size_dispatcher)</t>
+  </si>
+  <si>
+    <t>Fri Aug 25 07:16:19 2023    profile_results.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6959 function calls (6948 primitive calls) in 0.011 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.001    0.001    0.003    0.001 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:669(E_quench_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2000    0.001    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:533(stoppingpower)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.001    0.001    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:216(readPenNuc2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      394    0.001    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:875(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       19    0.000    0.000    0.000    0.000 {built-in method numpy.asarray}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\configparser.py:990(_read)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       10    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:193(sampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.010    0.010 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCRPy.py:18(TDCRPy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:23(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      848    0.000    0.000    0.000    0.000 {method 'append' of 'list' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        8    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\zipfile.py:987(_read1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    38/32    0.000    0.000    0.001    0.000 {built-in method numpy.core._multiarray_umath.implement_array_function}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      272    0.000    0.000    0.000    0.000 {method 'strip' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.011    0.011 {built-in method builtins.exec}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:166(normalise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       10    0.000    0.000    0.001    0.000 {function ZipExtFile.readline at 0x000001EAEEDFF318}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      247    0.000    0.000    0.000    0.000 {built-in method builtins.len}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:724(run_interpolate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\lib\function_base.py:1164(diff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:196(__init__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.010    0.010 G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\test.py:23(main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\_fitpack_impl.py:524(splev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       41    0.000    0.000    0.000    0.000 {built-in method builtins.isinstance}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       28    0.000    0.000    0.000    0.000 {built-in method builtins.getattr}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:211(validate_input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1073(energie_dep_beta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:930(energie_dep_gamma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {built-in method numpy.arange}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.003    0.001 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:831(Em_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:284(issubclass_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4    0.000    0.000    0.000    0.000 {method 'reshape' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {method 'any' of 'numpy.generic' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\shape_base.py:23(atleast_1d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       18    0.000    0.000    0.000    0.000 {built-in method builtins.issubclass}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:358(issubdtype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {built-in method scipy.interpolate._fitpack._spl_}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:258(_reset_class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2268(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack.py:295(splev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 {method 'index' of 'list' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\scipy\interpolate\fitpack2.py:326(__call__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numeric.py:1858(isscalar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        7    0.000    0.000    0.000    0.000 {built-in method numpy.core._multiarray_umath.normalize_axis_index}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2367(all)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(atleast_1d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(ndim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(diff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 &lt;__array_function__ internals&gt;:2(all)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.010    0.010 &lt;string&gt;:1(&lt;module&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\_methods.py:54(_any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {method 'astype' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3127(ndim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {method 'ravel' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2263(_any_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3123(_ndim_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:18(_linspace_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {built-in method _operator.index}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\multiarray.py:664(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\lib\function_base.py:1160(_diff_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2362(_all_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\shape_base.py:19(_atleast_1d_dispatcher)</t>
+  </si>
+  <si>
+    <t>test TDCRPy() version 0.0.75 (analytical model)</t>
+  </si>
+  <si>
+    <t>test TDCRPy() version 0.0.78 (analytical model)</t>
+  </si>
+  <si>
+    <t>Fri Aug 25 07:19:26 2023    profile_results.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2202079 function calls (2201139 primitive calls) in 2.793 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2184000    1.836    0.000    1.836    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:533(stoppingpower)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.922    0.003    2.778    0.009 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:669(E_quench_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.008    0.000    0.020    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:23(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.003    0.000    0.003    0.000 {method 'cumsum' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.003    0.000    0.009    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:193(sampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1562/626    0.003    0.000    0.024    0.000 {built-in method numpy.core._multiarray_umath.implement_array_function}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.002    0.000    0.010    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1073(energie_dep_beta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.001    0.001    2.792    2.792 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1466(modelAnalytical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.001    0.000    0.002    0.000 {method 'any' of 'numpy.generic' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.001    0.001    0.002    0.002 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:606(readBetaShape)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:358(issubdtype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      624    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:284(issubclass_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.004    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2458(cumsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.005    0.000 &lt;__array_function__ internals&gt;:2(cumsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.001    0.000 &lt;__array_function__ internals&gt;:2(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      312    0.000    0.000    0.020    0.000 &lt;__array_function__ internals&gt;:2(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 {method 'readlines' of '_io._IOBase' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    2.793    2.793 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCRPy.py:18(TDCRPy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    2.793    2.793 {built-in method builtins.exec}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        5    0.000    0.000    0.000    0.000 {function ZipExtFile.readline at 0x000001EAEEDFF318}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    2.793    2.793 G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\test.py:23(main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    2.793    2.793 &lt;string&gt;:1(&lt;module&gt;)</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +2287,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1604,16 +2330,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2048,1042 +2774,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A212"/>
+  <dimension ref="A1:AB250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:AB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+      <c r="P1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P90" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P97" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P98" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P122" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P124" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P131" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P137" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P139" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P143" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P144" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P147" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P148" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P150" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P152" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P154" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P156" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P157" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P158" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P162" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P163" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P164" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P166" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P169" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P171" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P172" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P173" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P175" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P176" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P177" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P178" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P179" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P180" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P181" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P182" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P184" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P187" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P189" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P191" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P192" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P193" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P195" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P197" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P198" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P199" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P201" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P202" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P205" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P206" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P207" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P211" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>204</v>
+      </c>
+      <c r="P212" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P213" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P214" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P216" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P217" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P218" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P219" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P220" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P221" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P222" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P223" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P224" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="225" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P225" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="226" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P226" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="227" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P227" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="228" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P228" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="229" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P229" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="230" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P230" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="231" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P231" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="232" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P233" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="234" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P234" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="235" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P235" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="236" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P236" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="237" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P237" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P238" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="239" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P239" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="240" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P240" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P241" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="242" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P242" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="243" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P243" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="244" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P245" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="246" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P246" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="247" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P247" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="248" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P248" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="249" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P249" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="250" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P250" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -3093,2340 +4651,3887 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5882D9B8-3CBF-467E-883E-ECFE1AF150DA}">
-  <dimension ref="A1:A245"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P84" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P87" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P98" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P101" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P102" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P104" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P105" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P106" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P107" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P108" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P109" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P111" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P112" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P114" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P115" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P116" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P118" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P119" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P120" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P124" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P125" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P126" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P127" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P128" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P129" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P130" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P132" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P135" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P136" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P138" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P140" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P141" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P142" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P143" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P146" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P148" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P150" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P151" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P152" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P153" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P154" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P155" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P156" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P157" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P158" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P159" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P160" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P161" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P162" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P163" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P164" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P165" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P166" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P168" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P169" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P171" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P172" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P174" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P175" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P177" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P178" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P179" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P180" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P181" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P182" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P183" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P184" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P185" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P186" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P187" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P188" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P189" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P190" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P191" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P192" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P193" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P194" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P195" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P196" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P197" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P198" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P199" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P200" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P201" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P202" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P203" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P204" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P205" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P206" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P207" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P208" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P209" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P210" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P211" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P212" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P213" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P214" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P216" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P217" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P218" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P219" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P220" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P221" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P222" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P223" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P224" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P225" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P226" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P227" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P228" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P229" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P230" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P231" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P233" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P234" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P235" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P236" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P237" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P238" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P239" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P240" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P241" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P242" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P243" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P244" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>204</v>
       </c>
+      <c r="P245" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P246" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P247" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P248" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P249" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P250" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P252" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P253" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P254" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P255" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P256" t="s">
+        <v>542</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140845D-5585-4B94-A276-7EC8ECE12978}">
-  <dimension ref="A1:A230"/>
+  <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P15" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P82" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P88" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P90" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P92" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P97" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P98" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P100" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P101" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P102" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P104" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P106" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P109" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P111" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P112" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P115" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P116" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P117" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P118" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P119" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P120" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P121" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P123" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P128" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P131" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P132" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P134" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P135" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P136" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P137" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P138" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P140" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P141" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P142" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P143" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P146" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P147" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P148" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P151" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P152" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P154" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P155" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P156" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P157" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P158" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P159" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P160" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P161" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P162" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P163" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P164" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P165" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P166" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P167" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P168" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P169" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P172" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P173" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P174" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P175" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P176" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P177" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P178" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P179" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P180" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P181" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P182" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P183" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P184" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P185" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P186" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P187" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P188" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P189" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P190" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P191" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P192" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P193" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P194" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P195" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P196" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P197" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P198" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P199" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P200" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P201" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P202" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P203" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P204" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P205" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P206" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P207" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P208" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P209" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P210" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P211" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P212" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P214" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P216" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P217" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P218" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P219" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P220" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P221" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P222" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P223" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P224" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P225" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P226" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P227" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P228" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P229" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>196</v>
+      </c>
+      <c r="P230" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P231" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P233" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P234" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P235" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P236" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P237" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P238" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P239" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P240" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P241" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="242" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P242" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="243" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P243" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="244" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P245" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="246" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P246" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="247" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P247" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="248" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P248" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="249" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P249" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="250" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P250" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5442,38 +8547,38 @@
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>496</v>
       </c>
@@ -5487,7 +8592,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -5507,7 +8612,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>460</v>
       </c>
@@ -5528,7 +8633,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5549,7 +8654,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>465</v>
       </c>
@@ -5570,7 +8675,7 @@
         <v>6.3888888888888884</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>466</v>
       </c>
@@ -5591,7 +8696,7 @@
         <v>6.1497326203208553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -5612,7 +8717,7 @@
         <v>6.2162162162162158</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -5633,7 +8738,7 @@
         <v>6.1170212765957448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>472</v>
       </c>
@@ -5654,7 +8759,7 @@
         <v>6.2841530054644803</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>474</v>
       </c>
@@ -5675,7 +8780,7 @@
         <v>6.3186813186813184</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>476</v>
       </c>
@@ -5696,7 +8801,7 @@
         <v>3.2303370786516852</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>479</v>
       </c>
@@ -5717,7 +8822,7 @@
         <v>3.4534534534534536</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>480</v>
       </c>
@@ -5738,7 +8843,7 @@
         <v>7.3717948717948714</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -5756,7 +8861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>485</v>
       </c>
@@ -5774,7 +8879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>485</v>
       </c>
@@ -5795,7 +8900,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>485</v>
       </c>
@@ -5816,7 +8921,7 @@
         <v>127.77777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>485</v>
       </c>
@@ -5837,7 +8942,7 @@
         <v>88.461538461538453</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>485</v>
       </c>
@@ -5858,7 +8963,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>485</v>
       </c>
@@ -5879,7 +8984,7 @@
         <v>31.081081081081081</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>485</v>
       </c>
@@ -5900,7 +9005,7 @@
         <v>19.827586206896552</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>485</v>
       </c>
@@ -5921,7 +9026,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>491</v>
       </c>
@@ -5942,7 +9047,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>491</v>
       </c>
@@ -5963,7 +9068,7 @@
         <v>164.28571428571428</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -5984,7 +9089,7 @@
         <v>164.28571428571428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>491</v>
       </c>
@@ -6005,7 +9110,7 @@
         <v>127.77777777777779</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>491</v>
       </c>
@@ -6026,7 +9131,7 @@
         <v>127.77777777777779</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>491</v>
       </c>
@@ -6047,7 +9152,7 @@
         <v>95.833333333333343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>493</v>
       </c>
@@ -6068,7 +9173,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>493</v>
       </c>
@@ -6089,7 +9194,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>493</v>
       </c>
@@ -6110,7 +9215,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>493</v>
       </c>
@@ -6131,7 +9236,7 @@
         <v>71.875</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>493</v>
       </c>
@@ -6152,42 +9257,42 @@
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>504</v>
       </c>

--- a/tdcrpy/validation/Validation_Fast_Quenching.xlsx
+++ b/tdcrpy/validation/Validation_Fast_Quenching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1540F7A-D627-4211-9E0A-6389F2C7D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA0F613-37A6-488A-8374-E45C4A83779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28560" yWindow="4320" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiling_H-3" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="946">
   <si>
     <t>Thu Aug 24 08:18:55 2023    profile_results.txt</t>
   </si>
@@ -2625,6 +2625,258 @@
   </si>
   <si>
     <t>test TDCRPy() version 1.1.2 for 10 MC trials</t>
+  </si>
+  <si>
+    <t>test TDCRPy() version 1.1.5 (analytical model)</t>
+  </si>
+  <si>
+    <t>Thu Sep  7 11:26:57 2023    profile_results.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7052686 function calls (7049682 primitive calls) in 9.356 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7000000    6.160    0.000    6.160    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:517(stoppingpower)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    3.038    0.003    9.286    0.009 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:703(E_quench_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.032    0.000    0.086    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:23(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.024    0.000    0.024    0.000 {method 'cumsum' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t>5000/2000    0.012    0.000    0.117    0.000 {built-in method numpy.core._multiarray_umath.implement_array_function}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.012    0.000    0.051    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:177(sampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.008    0.008    9.355    9.355 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1504(modelAnalytical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.008    0.000    0.008    0.000 {method 'reduce' of 'numpy.ufunc' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.008    0.000    0.008    0.000 {built-in method numpy.arange}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.007    0.000    0.007    0.000 {method 'rand' of 'numpy.random.mtrand.RandomState' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.006    0.000    0.057    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:1111(energie_dep_beta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.004    0.000    0.018    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:69(_wrapreduction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.003    0.000    0.012    0.000 {method 'any' of 'numpy.generic' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.002    0.000    0.007    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:358(issubdtype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2000    0.002    0.000    0.004    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numerictypes.py:284(issubclass_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.002    0.000    0.028    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2458(cumsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.002    0.000    0.032    0.000 &lt;__array_function__ internals&gt;:2(cumsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3000    0.002    0.000    0.002    0.000 {built-in method builtins.issubclass}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2000    0.002    0.000    0.002    0.000 {built-in method numpy.asanyarray}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.002    0.002    0.003    0.003 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:658(readBetaSpectra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.002    0.000    0.020    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2268(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.002    0.000    0.002    0.000 {method 'reshape' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.026    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:51(_wrapfunc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.007    0.000 &lt;__array_function__ internals&gt;:2(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.089    0.000 &lt;__array_function__ internals&gt;:2(linspace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.023    0.000 &lt;__array_function__ internals&gt;:2(any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2010    0.001    0.000    0.001    0.000 {built-in method builtins.getattr}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\numeric.py:1858(isscalar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:70(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.003    0.000 &lt;__array_function__ internals&gt;:2(ndim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3127(ndim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.009    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\_methods.py:54(_any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.001    0.000    0.001    0.000 {method 'astype' of 'numpy.ndarray' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 {method 'items' of 'dict' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 {built-in method _operator.index}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2454(_cumsum_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1017    0.000    0.000    0.000    0.000 {built-in method builtins.isinstance}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:2263(_any_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\fromnumeric.py:3123(_ndim_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\function_base.py:18(_linspace_dispatcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {built-in method io.open}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\numpy\core\multiarray.py:664(result_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1003    0.000    0.000    0.000    0.000 {method 'split' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2016    0.000    0.000    0.000    0.000 {method 'append' of 'list' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1089    0.000    0.000    0.000    0.000 {method 'strip' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       10    0.000    0.000    0.000    0.000 {built-in method _codecs.charmap_decode}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1006    0.000    0.000    0.000    0.000 {built-in method builtins.len}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    9.355    9.355 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCRPy.py:18(TDCRPy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    9.356    9.356 {built-in method builtins.exec}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       10    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\encodings\cp1252.py:22(decode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    9.355    9.355 G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\test.py:73(main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {built-in method _locale._getdefaultlocale}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\_bootlocale.py:11(getpreferredencoding)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\pathlib.py:709(__str__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\pathlib.py:719(__fspath__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 {method 'replace' of 'str' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\codecs.py:260(__init__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    9.355    9.355 &lt;string&gt;:1(&lt;module&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 {method 'get' of 'dict' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.000    0.000 {built-in method builtins.hasattr}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:703(E_quench_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1000    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:517(stoppingpower)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:968(energie_dep_gamma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:835(Em_a)</t>
+  </si>
+  <si>
+    <t>test TDCRPy() version 1.1.5 for 10 MC trials</t>
+  </si>
+  <si>
+    <t>Thu Sep  7 11:41:35 2023    profile_results.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         19633 function calls (19625 primitive calls) in 0.014 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.007    0.007    0.011    0.011 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:200(readPenNuc2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:760(run_interpolate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.014    0.014 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCRPy.py:18(TDCRPy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.014    0.014 G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\test.py:73(main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.014    0.014 {built-in method builtins.exec}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        6    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:177(sampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       12    0.000    0.000    0.000    0.000 {function ZipExtFile.readline at 0x000002EDE33CF318}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3    0.000    0.000    0.000    0.000 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:150(normalise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.001    0.000 C:\Users\romain.coulon\Anaconda3\lib\importlib\resources.py:173(path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\contextlib.py:107(__enter__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.001    0.001 C:\Users\romain.coulon\Anaconda3\lib\site-packages\tdcrpy\TDCR_model_lib.py:867(Em_e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2    0.000    0.000    0.001    0.000 {built-in method builtins.next}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.000    0.000 {function ZipExtFile.close at 0x000002EDE33CF798}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.000    0.000    0.014    0.014 &lt;string&gt;:1(&lt;module&gt;)</t>
   </si>
 </sst>
 </file>
@@ -3119,15 +3371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE250"/>
+  <dimension ref="A1:AT250"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BD10" sqref="BD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>721</v>
       </c>
@@ -3137,8 +3389,11 @@
       <c r="AE1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3146,12 +3401,15 @@
         <v>723</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AE6" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3159,12 +3417,15 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AE8" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3172,12 +3433,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AE10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3207,8 +3471,11 @@
       <c r="AE12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3230,8 +3497,11 @@
       <c r="AE13" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT13" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3241,8 +3511,11 @@
       <c r="AE14" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3252,8 +3525,11 @@
       <c r="AE15" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3263,8 +3539,11 @@
       <c r="AE16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT16" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3274,8 +3553,11 @@
       <c r="AE17" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3285,8 +3567,11 @@
       <c r="AE18" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT18" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3296,8 +3581,11 @@
       <c r="AE19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3307,8 +3595,11 @@
       <c r="AE20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3318,8 +3609,11 @@
       <c r="AE21" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT21" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3329,8 +3623,11 @@
       <c r="AE22" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -3340,8 +3637,11 @@
       <c r="AE23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3351,8 +3651,11 @@
       <c r="AE24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT24" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3362,8 +3665,11 @@
       <c r="AE25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT25" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3373,8 +3679,11 @@
       <c r="AE26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT26" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3384,8 +3693,11 @@
       <c r="AE27" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT27" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3395,8 +3707,11 @@
       <c r="AE28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT28" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -3406,8 +3721,11 @@
       <c r="AE29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT29" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3417,8 +3735,11 @@
       <c r="AE30" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT30" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3428,8 +3749,11 @@
       <c r="AE31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT31" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3439,8 +3763,11 @@
       <c r="AE32" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT32" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3450,8 +3777,11 @@
       <c r="AE33" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT33" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3461,8 +3791,11 @@
       <c r="AE34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT34" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3472,8 +3805,11 @@
       <c r="AE35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT35" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3483,8 +3819,11 @@
       <c r="AE36" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT36" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3494,8 +3833,11 @@
       <c r="AE37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT37" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -3505,8 +3847,11 @@
       <c r="AE38" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -3516,8 +3861,11 @@
       <c r="AE39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT39" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3527,8 +3875,11 @@
       <c r="AE40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT40" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3538,8 +3889,11 @@
       <c r="AE41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT41" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -3549,8 +3903,11 @@
       <c r="AE42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT42" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3560,8 +3917,11 @@
       <c r="AE43" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3571,8 +3931,11 @@
       <c r="AE44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT44" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3582,8 +3945,11 @@
       <c r="AE45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT45" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3593,8 +3959,11 @@
       <c r="AE46" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT46" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3604,8 +3973,11 @@
       <c r="AE47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT47" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3615,8 +3987,11 @@
       <c r="AE48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT48" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3626,8 +4001,11 @@
       <c r="AE49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT49" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3637,8 +4015,11 @@
       <c r="AE50" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -3648,8 +4029,11 @@
       <c r="AE51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT51" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3659,8 +4043,11 @@
       <c r="AE52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT52" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3670,8 +4057,11 @@
       <c r="AE53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT53" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3681,8 +4071,11 @@
       <c r="AE54" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT54" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -3692,8 +4085,11 @@
       <c r="AE55" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT55" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -3703,8 +4099,11 @@
       <c r="AE56" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT56" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3714,8 +4113,11 @@
       <c r="AE57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -3725,8 +4127,11 @@
       <c r="AE58" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT58" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -3736,8 +4141,11 @@
       <c r="AE59" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -3747,8 +4155,11 @@
       <c r="AE60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT60" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -3758,8 +4169,11 @@
       <c r="AE61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT61" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -3769,8 +4183,11 @@
       <c r="AE62" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3780,8 +4197,11 @@
       <c r="AE63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT63" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -3791,8 +4211,11 @@
       <c r="AE64" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT64" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -3802,8 +4225,11 @@
       <c r="AE65" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT65" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -3813,8 +4239,11 @@
       <c r="AE66" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -3824,8 +4253,11 @@
       <c r="AE67" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -3835,8 +4267,11 @@
       <c r="AE68" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -3846,8 +4281,11 @@
       <c r="AE69" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -3857,8 +4295,11 @@
       <c r="AE70" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -3868,8 +4309,11 @@
       <c r="AE71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -3879,8 +4323,11 @@
       <c r="AE72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -3890,8 +4337,11 @@
       <c r="AE73" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -3901,8 +4351,11 @@
       <c r="AE74" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT74" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -3912,8 +4365,11 @@
       <c r="AE75" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3923,8 +4379,11 @@
       <c r="AE76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT76" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -3934,8 +4393,11 @@
       <c r="AE77" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -3945,8 +4407,11 @@
       <c r="AE78" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -3956,8 +4421,11 @@
       <c r="AE79" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -3967,8 +4435,11 @@
       <c r="AE80" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT80" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -3978,8 +4449,11 @@
       <c r="AE81" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT81" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -3989,8 +4463,11 @@
       <c r="AE82" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -4000,8 +4477,11 @@
       <c r="AE83" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>76</v>
       </c>
@@ -4011,8 +4491,11 @@
       <c r="AE84" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -4022,8 +4505,11 @@
       <c r="AE85" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -4033,8 +4519,11 @@
       <c r="AE86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT86" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -4044,8 +4533,11 @@
       <c r="AE87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT87" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -4055,8 +4547,11 @@
       <c r="AE88" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT88" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -4066,8 +4561,11 @@
       <c r="AE89" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -4077,8 +4575,11 @@
       <c r="AE90" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -4088,8 +4589,11 @@
       <c r="AE91" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -4099,8 +4603,11 @@
       <c r="AE92" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT92" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -4110,8 +4617,11 @@
       <c r="AE93" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -4121,8 +4631,11 @@
       <c r="AE94" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -4132,8 +4645,11 @@
       <c r="AE95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -4143,8 +4659,11 @@
       <c r="AE96" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT96" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -4154,8 +4673,11 @@
       <c r="AE97" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -4165,8 +4687,11 @@
       <c r="AE98" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -4176,8 +4701,11 @@
       <c r="AE99" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -4187,8 +4715,11 @@
       <c r="AE100" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -4198,8 +4729,11 @@
       <c r="AE101" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT101" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -4209,8 +4743,11 @@
       <c r="AE102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -4220,8 +4757,11 @@
       <c r="AE103" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT103" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -4231,8 +4771,11 @@
       <c r="AE104" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT104" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -4242,8 +4785,11 @@
       <c r="AE105" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -4253,8 +4799,11 @@
       <c r="AE106" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>99</v>
       </c>
@@ -4264,8 +4813,11 @@
       <c r="AE107" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>100</v>
       </c>
@@ -4275,8 +4827,11 @@
       <c r="AE108" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -4286,8 +4841,11 @@
       <c r="AE109" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>102</v>
       </c>
@@ -4297,8 +4855,11 @@
       <c r="AE110" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -4308,8 +4869,11 @@
       <c r="AE111" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -4319,8 +4883,11 @@
       <c r="AE112" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>105</v>
       </c>
@@ -4330,8 +4897,11 @@
       <c r="AE113" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>106</v>
       </c>
@@ -4341,8 +4911,11 @@
       <c r="AE114" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>107</v>
       </c>
@@ -4352,8 +4925,11 @@
       <c r="AE115" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>108</v>
       </c>
@@ -4363,8 +4939,11 @@
       <c r="AE116" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>109</v>
       </c>
@@ -4374,8 +4953,11 @@
       <c r="AE117" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -4385,8 +4967,11 @@
       <c r="AE118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>111</v>
       </c>
@@ -4396,8 +4981,11 @@
       <c r="AE119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -4407,8 +4995,11 @@
       <c r="AE120" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT120" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>113</v>
       </c>
@@ -4418,8 +5009,11 @@
       <c r="AE121" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>114</v>
       </c>
@@ -4429,8 +5023,11 @@
       <c r="AE122" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -4440,8 +5037,11 @@
       <c r="AE123" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>116</v>
       </c>
@@ -4451,8 +5051,11 @@
       <c r="AE124" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>117</v>
       </c>
@@ -4462,8 +5065,11 @@
       <c r="AE125" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT125" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -4473,8 +5079,11 @@
       <c r="AE126" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>119</v>
       </c>
@@ -4484,8 +5093,11 @@
       <c r="AE127" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT127" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>120</v>
       </c>
@@ -4495,8 +5107,11 @@
       <c r="AE128" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -4506,8 +5121,11 @@
       <c r="AE129" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT129" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>122</v>
       </c>
@@ -4517,8 +5135,11 @@
       <c r="AE130" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4528,8 +5149,11 @@
       <c r="AE131" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>124</v>
       </c>
@@ -4539,8 +5163,11 @@
       <c r="AE132" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -4550,8 +5177,11 @@
       <c r="AE133" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -4561,8 +5191,11 @@
       <c r="AE134" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -4572,8 +5205,11 @@
       <c r="AE135" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -4583,8 +5219,11 @@
       <c r="AE136" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -4594,8 +5233,11 @@
       <c r="AE137" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT137" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -4605,8 +5247,11 @@
       <c r="AE138" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -4616,8 +5261,11 @@
       <c r="AE139" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -4627,8 +5275,11 @@
       <c r="AE140" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT140" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -4638,8 +5289,11 @@
       <c r="AE141" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT141" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -4649,8 +5303,11 @@
       <c r="AE142" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -4660,8 +5317,11 @@
       <c r="AE143" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -4671,8 +5331,11 @@
       <c r="AE144" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT144" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -4682,8 +5345,11 @@
       <c r="AE145" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT145" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -4693,8 +5359,11 @@
       <c r="AE146" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>139</v>
       </c>
@@ -4704,8 +5373,11 @@
       <c r="AE147" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>140</v>
       </c>
@@ -4715,8 +5387,11 @@
       <c r="AE148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>141</v>
       </c>
@@ -4726,8 +5401,11 @@
       <c r="AE149" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -4737,8 +5415,11 @@
       <c r="AE150" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT150" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -4748,8 +5429,11 @@
       <c r="AE151" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT151" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -4759,8 +5443,11 @@
       <c r="AE152" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT152" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -4770,8 +5457,11 @@
       <c r="AE153" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>146</v>
       </c>
@@ -4781,8 +5471,11 @@
       <c r="AE154" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT154" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -4792,8 +5485,11 @@
       <c r="AE155" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT155" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>148</v>
       </c>
@@ -4803,8 +5499,11 @@
       <c r="AE156" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -4814,8 +5513,11 @@
       <c r="AE157" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT157" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>150</v>
       </c>
@@ -4825,8 +5527,11 @@
       <c r="AE158" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>151</v>
       </c>
@@ -4836,8 +5541,11 @@
       <c r="AE159" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT159" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -4847,8 +5555,11 @@
       <c r="AE160" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT160" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -4858,8 +5569,11 @@
       <c r="AE161" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>154</v>
       </c>
@@ -4869,8 +5583,11 @@
       <c r="AE162" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT162" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -4880,8 +5597,11 @@
       <c r="AE163" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -4891,8 +5611,11 @@
       <c r="AE164" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>157</v>
       </c>
@@ -4902,8 +5625,11 @@
       <c r="AE165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>158</v>
       </c>
@@ -4913,8 +5639,11 @@
       <c r="AE166" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -4924,8 +5653,11 @@
       <c r="AE167" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>160</v>
       </c>
@@ -4935,8 +5667,11 @@
       <c r="AE168" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>161</v>
       </c>
@@ -4946,8 +5681,11 @@
       <c r="AE169" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>162</v>
       </c>
@@ -4957,8 +5695,11 @@
       <c r="AE170" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -4968,8 +5709,11 @@
       <c r="AE171" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>164</v>
       </c>
@@ -4979,8 +5723,11 @@
       <c r="AE172" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -4990,8 +5737,11 @@
       <c r="AE173" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT173" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>166</v>
       </c>
@@ -5001,8 +5751,11 @@
       <c r="AE174" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT174" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -5012,8 +5765,11 @@
       <c r="AE175" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT175" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>168</v>
       </c>
@@ -5620,15 +6376,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5882D9B8-3CBF-467E-883E-ECFE1AF150DA}">
-  <dimension ref="A1:AE261"/>
+  <dimension ref="A1:AT289"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5:AT261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>433</v>
       </c>
@@ -5638,8 +6394,11 @@
       <c r="AE1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -5649,8 +6408,11 @@
       <c r="AE5" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -5660,8 +6422,11 @@
       <c r="AE7" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -5671,8 +6436,11 @@
       <c r="AE9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -5682,8 +6450,11 @@
       <c r="AE11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -5693,8 +6464,11 @@
       <c r="AE12" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
@@ -5704,8 +6478,11 @@
       <c r="AE13" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -5715,8 +6492,11 @@
       <c r="AE14" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>210</v>
       </c>
@@ -5726,8 +6506,11 @@
       <c r="AE15" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT15" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -5737,8 +6520,11 @@
       <c r="AE16" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -5748,8 +6534,11 @@
       <c r="AE17" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -5759,8 +6548,11 @@
       <c r="AE18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -5770,8 +6562,11 @@
       <c r="AE19" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>215</v>
       </c>
@@ -5781,8 +6576,11 @@
       <c r="AE20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT20" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -5792,8 +6590,11 @@
       <c r="AE21" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -5803,8 +6604,11 @@
       <c r="AE22" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT22" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -5814,8 +6618,11 @@
       <c r="AE23" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT23" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -5825,8 +6632,11 @@
       <c r="AE24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>220</v>
       </c>
@@ -5836,8 +6646,11 @@
       <c r="AE25" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT25" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -5847,8 +6660,11 @@
       <c r="AE26" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT26" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -5858,8 +6674,11 @@
       <c r="AE27" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT27" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -5869,8 +6688,11 @@
       <c r="AE28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -5880,8 +6702,11 @@
       <c r="AE29" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT29" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>225</v>
       </c>
@@ -5891,8 +6716,11 @@
       <c r="AE30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -5902,8 +6730,11 @@
       <c r="AE31" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT31" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>227</v>
       </c>
@@ -5913,8 +6744,11 @@
       <c r="AE32" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>228</v>
       </c>
@@ -5924,8 +6758,11 @@
       <c r="AE33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT33" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -5935,8 +6772,11 @@
       <c r="AE34" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT34" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -5946,8 +6786,11 @@
       <c r="AE35" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT35" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>231</v>
       </c>
@@ -5957,8 +6800,11 @@
       <c r="AE36" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT36" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>232</v>
       </c>
@@ -5968,8 +6814,11 @@
       <c r="AE37" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -5979,8 +6828,11 @@
       <c r="AE38" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT38" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>234</v>
       </c>
@@ -5990,8 +6842,11 @@
       <c r="AE39" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT39" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>235</v>
       </c>
@@ -6001,8 +6856,11 @@
       <c r="AE40" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>236</v>
       </c>
@@ -6012,8 +6870,11 @@
       <c r="AE41" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -6023,8 +6884,11 @@
       <c r="AE42" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT42" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>237</v>
       </c>
@@ -6034,8 +6898,11 @@
       <c r="AE43" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -6045,8 +6912,11 @@
       <c r="AE44" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT44" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>239</v>
       </c>
@@ -6056,8 +6926,11 @@
       <c r="AE45" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT45" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>240</v>
       </c>
@@ -6067,8 +6940,11 @@
       <c r="AE46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT46" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -6078,8 +6954,11 @@
       <c r="AE47" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT47" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -6089,8 +6968,11 @@
       <c r="AE48" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT48" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -6100,8 +6982,11 @@
       <c r="AE49" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT49" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -6111,8 +6996,11 @@
       <c r="AE50" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT50" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6122,8 +7010,11 @@
       <c r="AE51" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT51" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -6133,8 +7024,11 @@
       <c r="AE52" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT52" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>245</v>
       </c>
@@ -6144,8 +7038,11 @@
       <c r="AE53" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -6155,8 +7052,11 @@
       <c r="AE54" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT54" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -6166,8 +7066,11 @@
       <c r="AE55" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT55" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -6177,8 +7080,11 @@
       <c r="AE56" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT56" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>249</v>
       </c>
@@ -6188,8 +7094,11 @@
       <c r="AE57" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>250</v>
       </c>
@@ -6199,8 +7108,11 @@
       <c r="AE58" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT58" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>251</v>
       </c>
@@ -6210,8 +7122,11 @@
       <c r="AE59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6221,8 +7136,11 @@
       <c r="AE60" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>252</v>
       </c>
@@ -6232,8 +7150,11 @@
       <c r="AE61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -6243,8 +7164,11 @@
       <c r="AE62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT62" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -6254,8 +7178,11 @@
       <c r="AE63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT63" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>255</v>
       </c>
@@ -6265,8 +7192,11 @@
       <c r="AE64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT64" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -6276,8 +7206,11 @@
       <c r="AE65" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT65" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -6287,8 +7220,11 @@
       <c r="AE66" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -6298,8 +7234,11 @@
       <c r="AE67" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -6309,8 +7248,11 @@
       <c r="AE68" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT68" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -6320,8 +7262,11 @@
       <c r="AE69" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT69" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -6331,8 +7276,11 @@
       <c r="AE70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT70" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6342,8 +7290,11 @@
       <c r="AE71" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -6353,8 +7304,11 @@
       <c r="AE72" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT72" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -6364,8 +7318,11 @@
       <c r="AE73" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT73" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -6375,8 +7332,11 @@
       <c r="AE74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -6386,8 +7346,11 @@
       <c r="AE75" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT75" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -6397,8 +7360,11 @@
       <c r="AE76" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>265</v>
       </c>
@@ -6408,8 +7374,11 @@
       <c r="AE77" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT77" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>266</v>
       </c>
@@ -6419,8 +7388,11 @@
       <c r="AE78" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -6430,8 +7402,11 @@
       <c r="AE79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT79" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -6441,8 +7416,11 @@
       <c r="AE80" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -6452,8 +7430,11 @@
       <c r="AE81" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -6463,8 +7444,11 @@
       <c r="AE82" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -6474,8 +7458,11 @@
       <c r="AE83" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT83" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -6485,8 +7472,11 @@
       <c r="AE84" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT84" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -6496,8 +7486,11 @@
       <c r="AE85" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT85" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -6507,8 +7500,11 @@
       <c r="AE86" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>71</v>
       </c>
@@ -6518,8 +7514,11 @@
       <c r="AE87" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT87" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>271</v>
       </c>
@@ -6529,8 +7528,11 @@
       <c r="AE88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT88" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -6540,8 +7542,11 @@
       <c r="AE89" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>273</v>
       </c>
@@ -6551,8 +7556,11 @@
       <c r="AE90" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT90" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -6562,8 +7570,11 @@
       <c r="AE91" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT91" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>275</v>
       </c>
@@ -6573,8 +7584,11 @@
       <c r="AE92" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT92" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -6584,8 +7598,11 @@
       <c r="AE93" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT93" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>277</v>
       </c>
@@ -6595,8 +7612,11 @@
       <c r="AE94" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT94" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>278</v>
       </c>
@@ -6606,8 +7626,11 @@
       <c r="AE95" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -6617,8 +7640,11 @@
       <c r="AE96" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>280</v>
       </c>
@@ -6628,8 +7654,11 @@
       <c r="AE97" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT97" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>281</v>
       </c>
@@ -6639,8 +7668,11 @@
       <c r="AE98" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT98" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -6650,8 +7682,11 @@
       <c r="AE99" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT99" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>282</v>
       </c>
@@ -6661,8 +7696,11 @@
       <c r="AE100" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>283</v>
       </c>
@@ -6672,8 +7710,11 @@
       <c r="AE101" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>284</v>
       </c>
@@ -6683,8 +7724,11 @@
       <c r="AE102" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT102" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>285</v>
       </c>
@@ -6694,8 +7738,11 @@
       <c r="AE103" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT103" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>286</v>
       </c>
@@ -6705,8 +7752,11 @@
       <c r="AE104" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT104" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>287</v>
       </c>
@@ -6716,8 +7766,11 @@
       <c r="AE105" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT105" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>76</v>
       </c>
@@ -6727,8 +7780,11 @@
       <c r="AE106" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT106" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>288</v>
       </c>
@@ -6738,8 +7794,11 @@
       <c r="AE107" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT107" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>289</v>
       </c>
@@ -6749,8 +7808,11 @@
       <c r="AE108" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT108" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>290</v>
       </c>
@@ -6760,8 +7822,11 @@
       <c r="AE109" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT109" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -6771,8 +7836,11 @@
       <c r="AE110" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>292</v>
       </c>
@@ -6782,8 +7850,11 @@
       <c r="AE111" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>293</v>
       </c>
@@ -6793,8 +7864,11 @@
       <c r="AE112" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>294</v>
       </c>
@@ -6804,8 +7878,11 @@
       <c r="AE113" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>82</v>
       </c>
@@ -6815,8 +7892,11 @@
       <c r="AE114" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>295</v>
       </c>
@@ -6826,8 +7906,11 @@
       <c r="AE115" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT115" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>296</v>
       </c>
@@ -6837,8 +7920,11 @@
       <c r="AE116" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT116" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>297</v>
       </c>
@@ -6848,8 +7934,11 @@
       <c r="AE117" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT117" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>298</v>
       </c>
@@ -6859,8 +7948,11 @@
       <c r="AE118" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -6870,8 +7962,11 @@
       <c r="AE119" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT119" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>299</v>
       </c>
@@ -6881,8 +7976,11 @@
       <c r="AE120" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>300</v>
       </c>
@@ -6892,8 +7990,11 @@
       <c r="AE121" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT121" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -6903,8 +8004,11 @@
       <c r="AE122" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT122" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>301</v>
       </c>
@@ -6914,8 +8018,11 @@
       <c r="AE123" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT123" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>87</v>
       </c>
@@ -6925,8 +8032,11 @@
       <c r="AE124" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT124" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>302</v>
       </c>
@@ -6936,8 +8046,11 @@
       <c r="AE125" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>303</v>
       </c>
@@ -6947,8 +8060,11 @@
       <c r="AE126" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>304</v>
       </c>
@@ -6958,8 +8074,11 @@
       <c r="AE127" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT127" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -6969,8 +8088,11 @@
       <c r="AE128" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT128" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>306</v>
       </c>
@@ -6980,8 +8102,11 @@
       <c r="AE129" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -6991,8 +8116,11 @@
       <c r="AE130" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>89</v>
       </c>
@@ -7002,8 +8130,11 @@
       <c r="AE131" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT131" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>307</v>
       </c>
@@ -7013,8 +8144,11 @@
       <c r="AE132" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT132" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>90</v>
       </c>
@@ -7024,8 +8158,11 @@
       <c r="AE133" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -7035,8 +8172,11 @@
       <c r="AE134" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT134" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -7046,8 +8186,11 @@
       <c r="AE135" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT135" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>94</v>
       </c>
@@ -7057,8 +8200,11 @@
       <c r="AE136" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT136" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>100</v>
       </c>
@@ -7068,8 +8214,11 @@
       <c r="AE137" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>309</v>
       </c>
@@ -7079,8 +8228,11 @@
       <c r="AE138" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>104</v>
       </c>
@@ -7090,8 +8242,11 @@
       <c r="AE139" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT139" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -7101,8 +8256,11 @@
       <c r="AE140" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT140" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>310</v>
       </c>
@@ -7112,8 +8270,11 @@
       <c r="AE141" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT141" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>311</v>
       </c>
@@ -7123,8 +8284,11 @@
       <c r="AE142" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT142" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>312</v>
       </c>
@@ -7134,8 +8298,11 @@
       <c r="AE143" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT143" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>313</v>
       </c>
@@ -7145,8 +8312,11 @@
       <c r="AE144" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT144" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>314</v>
       </c>
@@ -7156,8 +8326,11 @@
       <c r="AE145" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT145" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -7167,8 +8340,11 @@
       <c r="AE146" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT146" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>316</v>
       </c>
@@ -7178,8 +8354,11 @@
       <c r="AE147" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT147" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>317</v>
       </c>
@@ -7189,8 +8368,11 @@
       <c r="AE148" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT148" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>318</v>
       </c>
@@ -7200,8 +8382,11 @@
       <c r="AE149" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT149" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>119</v>
       </c>
@@ -7211,8 +8396,11 @@
       <c r="AE150" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT150" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>319</v>
       </c>
@@ -7222,8 +8410,11 @@
       <c r="AE151" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -7233,8 +8424,11 @@
       <c r="AE152" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT152" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>320</v>
       </c>
@@ -7244,8 +8438,11 @@
       <c r="AE153" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT153" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>321</v>
       </c>
@@ -7255,8 +8452,11 @@
       <c r="AE154" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT154" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -7266,8 +8466,11 @@
       <c r="AE155" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT155" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>116</v>
       </c>
@@ -7277,8 +8480,11 @@
       <c r="AE156" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT156" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -7288,8 +8494,11 @@
       <c r="AE157" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT157" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -7299,8 +8508,11 @@
       <c r="AE158" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT158" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -7310,8 +8522,11 @@
       <c r="AE159" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT159" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -7321,8 +8536,11 @@
       <c r="AE160" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT160" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -7332,8 +8550,11 @@
       <c r="AE161" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT161" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -7343,8 +8564,11 @@
       <c r="AE162" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>124</v>
       </c>
@@ -7354,8 +8578,11 @@
       <c r="AE163" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT163" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -7365,8 +8592,11 @@
       <c r="AE164" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT164" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>123</v>
       </c>
@@ -7376,8 +8606,11 @@
       <c r="AE165" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT165" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>113</v>
       </c>
@@ -7387,8 +8620,11 @@
       <c r="AE166" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT166" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -7398,8 +8634,11 @@
       <c r="AE167" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>326</v>
       </c>
@@ -7409,8 +8648,11 @@
       <c r="AE168" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>114</v>
       </c>
@@ -7420,8 +8662,11 @@
       <c r="AE169" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT169" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>131</v>
       </c>
@@ -7431,8 +8676,11 @@
       <c r="AE170" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT170" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>327</v>
       </c>
@@ -7442,8 +8690,11 @@
       <c r="AE171" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>328</v>
       </c>
@@ -7453,8 +8704,11 @@
       <c r="AE172" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT172" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>125</v>
       </c>
@@ -7464,8 +8718,11 @@
       <c r="AE173" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT173" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>128</v>
       </c>
@@ -7475,8 +8732,11 @@
       <c r="AE174" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT174" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>135</v>
       </c>
@@ -7486,8 +8746,11 @@
       <c r="AE175" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT175" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>120</v>
       </c>
@@ -7497,8 +8760,11 @@
       <c r="AE176" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT176" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>127</v>
       </c>
@@ -7508,8 +8774,11 @@
       <c r="AE177" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT177" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>329</v>
       </c>
@@ -7519,8 +8788,11 @@
       <c r="AE178" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT178" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>330</v>
       </c>
@@ -7530,8 +8802,11 @@
       <c r="AE179" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -7541,8 +8816,11 @@
       <c r="AE180" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>146</v>
       </c>
@@ -7552,8 +8830,11 @@
       <c r="AE181" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT181" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -7563,8 +8844,11 @@
       <c r="AE182" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT182" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>140</v>
       </c>
@@ -7574,8 +8858,11 @@
       <c r="AE183" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT183" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>149</v>
       </c>
@@ -7585,8 +8872,11 @@
       <c r="AE184" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT184" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>137</v>
       </c>
@@ -7596,8 +8886,11 @@
       <c r="AE185" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT185" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>331</v>
       </c>
@@ -7607,8 +8900,11 @@
       <c r="AE186" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT186" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>332</v>
       </c>
@@ -7618,8 +8914,11 @@
       <c r="AE187" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT187" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>150</v>
       </c>
@@ -7629,8 +8928,11 @@
       <c r="AE188" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT188" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>333</v>
       </c>
@@ -7640,8 +8942,11 @@
       <c r="AE189" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT189" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>134</v>
       </c>
@@ -7651,8 +8956,11 @@
       <c r="AE190" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT190" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>334</v>
       </c>
@@ -7662,8 +8970,11 @@
       <c r="AE191" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT191" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>143</v>
       </c>
@@ -7673,8 +8984,11 @@
       <c r="AE192" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT192" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>151</v>
       </c>
@@ -7684,8 +8998,11 @@
       <c r="AE193" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT193" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>335</v>
       </c>
@@ -7695,8 +9012,11 @@
       <c r="AE194" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT194" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>160</v>
       </c>
@@ -7706,8 +9026,11 @@
       <c r="AE195" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT195" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -7717,8 +9040,11 @@
       <c r="AE196" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT196" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>145</v>
       </c>
@@ -7728,8 +9054,11 @@
       <c r="AE197" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT197" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>154</v>
       </c>
@@ -7739,8 +9068,11 @@
       <c r="AE198" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT198" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>336</v>
       </c>
@@ -7750,8 +9082,11 @@
       <c r="AE199" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT199" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>337</v>
       </c>
@@ -7761,8 +9096,11 @@
       <c r="AE200" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>338</v>
       </c>
@@ -7772,8 +9110,11 @@
       <c r="AE201" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT201" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>157</v>
       </c>
@@ -7783,8 +9124,11 @@
       <c r="AE202" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT202" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>339</v>
       </c>
@@ -7794,8 +9138,11 @@
       <c r="AE203" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT203" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>162</v>
       </c>
@@ -7805,8 +9152,11 @@
       <c r="AE204" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT204" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>340</v>
       </c>
@@ -7816,8 +9166,11 @@
       <c r="AE205" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT205" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>126</v>
       </c>
@@ -7827,8 +9180,11 @@
       <c r="AE206" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT206" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>156</v>
       </c>
@@ -7838,8 +9194,11 @@
       <c r="AE207" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT207" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>165</v>
       </c>
@@ -7849,8 +9208,11 @@
       <c r="AE208" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT208" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>161</v>
       </c>
@@ -7860,8 +9222,11 @@
       <c r="AE209" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT209" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>159</v>
       </c>
@@ -7871,8 +9236,11 @@
       <c r="AE210" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT210" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>341</v>
       </c>
@@ -7882,8 +9250,11 @@
       <c r="AE211" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT211" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>148</v>
       </c>
@@ -7893,8 +9264,11 @@
       <c r="AE212" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT212" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>342</v>
       </c>
@@ -7904,8 +9278,11 @@
       <c r="AE213" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT213" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>172</v>
       </c>
@@ -7915,8 +9292,11 @@
       <c r="AE214" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT214" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>343</v>
       </c>
@@ -7926,8 +9306,11 @@
       <c r="AE215" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT215" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>163</v>
       </c>
@@ -7937,8 +9320,11 @@
       <c r="AE216" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT216" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>173</v>
       </c>
@@ -7948,8 +9334,11 @@
       <c r="AE217" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT217" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -7959,8 +9348,11 @@
       <c r="AE218" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT218" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>344</v>
       </c>
@@ -7970,8 +9362,11 @@
       <c r="AE219" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT219" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>171</v>
       </c>
@@ -7981,8 +9376,11 @@
       <c r="AE220" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT220" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>345</v>
       </c>
@@ -7992,8 +9390,11 @@
       <c r="AE221" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT221" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>346</v>
       </c>
@@ -8003,8 +9404,11 @@
       <c r="AE222" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT222" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>192</v>
       </c>
@@ -8014,8 +9418,11 @@
       <c r="AE223" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT223" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>347</v>
       </c>
@@ -8025,8 +9432,11 @@
       <c r="AE224" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT224" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>174</v>
       </c>
@@ -8036,8 +9446,11 @@
       <c r="AE225" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT225" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>178</v>
       </c>
@@ -8047,8 +9460,11 @@
       <c r="AE226" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT226" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -8058,8 +9474,11 @@
       <c r="AE227" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT227" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>181</v>
       </c>
@@ -8069,8 +9488,11 @@
       <c r="AE228" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT228" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>179</v>
       </c>
@@ -8080,8 +9502,11 @@
       <c r="AE229" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT229" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>185</v>
       </c>
@@ -8091,8 +9516,11 @@
       <c r="AE230" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT230" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>190</v>
       </c>
@@ -8102,8 +9530,11 @@
       <c r="AE231" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT231" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -8113,8 +9544,11 @@
       <c r="AE232" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT232" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>194</v>
       </c>
@@ -8124,8 +9558,11 @@
       <c r="AE233" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT233" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>191</v>
       </c>
@@ -8135,8 +9572,11 @@
       <c r="AE234" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT234" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>186</v>
       </c>
@@ -8146,8 +9586,11 @@
       <c r="AE235" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT235" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>177</v>
       </c>
@@ -8157,8 +9600,11 @@
       <c r="AE236" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT236" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>348</v>
       </c>
@@ -8168,8 +9614,11 @@
       <c r="AE237" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT237" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>200</v>
       </c>
@@ -8179,8 +9628,11 @@
       <c r="AE238" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT238" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>196</v>
       </c>
@@ -8190,8 +9642,11 @@
       <c r="AE239" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT239" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>197</v>
       </c>
@@ -8201,8 +9656,11 @@
       <c r="AE240" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT240" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>198</v>
       </c>
@@ -8212,8 +9670,11 @@
       <c r="AE241" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT241" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
@@ -8223,8 +9684,11 @@
       <c r="AE242" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT242" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>199</v>
       </c>
@@ -8234,8 +9698,11 @@
       <c r="AE243" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT243" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>202</v>
       </c>
@@ -8245,8 +9712,11 @@
       <c r="AE244" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT244" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>204</v>
       </c>
@@ -8256,117 +9726,308 @@
       <c r="AE245" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT245" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P246" t="s">
         <v>540</v>
       </c>
       <c r="AE246" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT246" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P247" t="s">
         <v>203</v>
       </c>
       <c r="AE247" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT247" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P248" t="s">
         <v>199</v>
       </c>
       <c r="AE248" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT248" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P249" t="s">
         <v>202</v>
       </c>
       <c r="AE249" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT249" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P250" t="s">
         <v>541</v>
       </c>
       <c r="AE250" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT250" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P251" t="s">
         <v>543</v>
       </c>
       <c r="AE251" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT251" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P252" t="s">
         <v>544</v>
       </c>
       <c r="AE252" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT252" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P253" t="s">
         <v>200</v>
       </c>
       <c r="AE253" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT253" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P254" t="s">
         <v>196</v>
       </c>
       <c r="AE254" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT254" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P255" t="s">
         <v>204</v>
       </c>
       <c r="AE255" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AT255" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
       <c r="P256" t="s">
         <v>542</v>
       </c>
       <c r="AE256" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="257" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AT256" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="257" spans="31:46" x14ac:dyDescent="0.25">
       <c r="AE257" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="258" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AT257" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="258" spans="31:46" x14ac:dyDescent="0.25">
       <c r="AE258" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="259" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AT258" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="259" spans="31:46" x14ac:dyDescent="0.25">
       <c r="AE259" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="260" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AT259" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="260" spans="31:46" x14ac:dyDescent="0.25">
       <c r="AE260" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="261" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AT260" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="261" spans="31:46" x14ac:dyDescent="0.25">
       <c r="AE261" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT261" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="262" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT262" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="263" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT263" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="264" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT264" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="265" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT265" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="266" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT266" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="267" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT267" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="268" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT268" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="269" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT269" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="270" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT270" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="271" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT271" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="272" spans="31:46" x14ac:dyDescent="0.25">
+      <c r="AT272" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="273" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT273" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="274" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT274" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="275" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT275" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="276" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT276" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="277" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT277" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="278" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT278" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="279" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT279" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="280" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT280" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="281" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT281" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="282" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT282" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="283" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT283" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="284" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT284" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="285" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT285" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="286" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT286" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="287" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT287" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="288" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT288" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="289" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT289" t="s">
         <v>204</v>
       </c>
     </row>
@@ -8380,7 +10041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140845D-5585-4B94-A276-7EC8ECE12978}">
   <dimension ref="A1:AT263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AU22" sqref="AU22"/>
     </sheetView>
   </sheetViews>
